--- a/public/download/question_bulk_demo2025.xlsx
+++ b/public/download/question_bulk_demo2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\quizzy\public\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADDE03D-0406-4E39-BEDC-7DE92AE023DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAF48E0-88B3-4FA0-906B-A87EFB292D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4FE681D9-AC93-4777-9415-2108522B2E1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -187,6 +187,27 @@
   </si>
   <si>
     <t>reference</t>
+  </si>
+  <si>
+    <t>answer_two_gap_match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ماهي عاصمة مصر ؟	</t>
+  </si>
+  <si>
+    <t>short_answer</t>
+  </si>
+  <si>
+    <t>ماهي عاصمة مصر ........</t>
+  </si>
+  <si>
+    <t>القاهرة</t>
+  </si>
+  <si>
+    <t>long_answer</t>
+  </si>
+  <si>
+    <t>القاهرة 20</t>
   </si>
 </sst>
 </file>
@@ -264,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -276,6 +297,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C45238-E28B-49A4-8E30-28A9D0AF0282}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -618,9 +642,10 @@
     <col min="21" max="21" width="34.25" customWidth="1"/>
     <col min="22" max="22" width="27.5" customWidth="1"/>
     <col min="23" max="23" width="35" customWidth="1"/>
+    <col min="24" max="24" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -690,8 +715,11 @@
       <c r="W1" t="s">
         <v>29</v>
       </c>
+      <c r="X1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -747,7 +775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -800,7 +828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -847,7 +875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -889,6 +917,64 @@
       </c>
       <c r="W5" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/public/download/question_bulk_demo2025.xlsx
+++ b/public/download/question_bulk_demo2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\quizzy\public\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAF48E0-88B3-4FA0-906B-A87EFB292D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7707616B-9911-436E-8D7F-18B8430A9B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{4FE681D9-AC93-4777-9415-2108522B2E1E}"/>
   </bookViews>
@@ -207,7 +207,7 @@
     <t>long_answer</t>
   </si>
   <si>
-    <t>القاهرة 20</t>
+    <t>القاهرة 22</t>
   </si>
 </sst>
 </file>
